--- a/resources/tools/wordlist_E-J/lessons/lesson-1.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -368,888 +436,888 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>science</t>
+          <t>um...</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>かがく</t>
+          <t>あの</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Asian studies</t>
+          <t>now</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>アジアけんきゅう</t>
+          <t>いま</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>economics</t>
+          <t>English (language)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>けいざい</t>
+          <t>えいご</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>international relations</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>こくさいかんけい</t>
+          <t>ええ</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>computer</t>
+          <t>student</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>コンピューター</t>
+          <t>がくせい</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>anthropology</t>
+          <t>...language</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>じんるいがく</t>
+          <t>～ご</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>politics</t>
+          <t>high school</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>せいじ</t>
+          <t>こうこう</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>P.M.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ビジネス</t>
+          <t>ごご</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>literature</t>
+          <t>A.M.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ぶんがく</t>
+          <t>ごぜん</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>...years old</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>れきし</t>
+          <t>～さい</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>teacher; Professor...</t>
+          <t>Mr./Ms....</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>せんせい</t>
+          <t>～さん</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>That's right.</t>
+          <t>o'clock</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>そうです</t>
+          <t>～じ</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>I see.; Is that so?</t>
+          <t>...people</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>そうですか</t>
+          <t>～じん</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>college; university</t>
+          <t>major</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>だいがく</t>
+          <t>せんこう</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>telephone</t>
+          <t>teacher; Professor...</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>でんわ</t>
+          <t>せんせい</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>friend</t>
+          <t>That's right.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ともだち</t>
+          <t>そうです</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>I see.; Is that so?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>なまえ</t>
+          <t>そうですか</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>college; university</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>なん／なに</t>
+          <t>だいがく</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>telephone</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>にほん</t>
+          <t>でんわ</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>...year student</t>
+          <t>friend</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>～ねんせい</t>
+          <t>ともだち</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>はい</t>
+          <t>なまえ</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>half</t>
+          <t>what</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>はん</t>
+          <t>なん／なに</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ばんごう</t>
+          <t>にほん</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>international student</t>
+          <t>...year student</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>りゅうがくせい</t>
+          <t>～ねんせい</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>わたし</t>
+          <t>はい</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>mother</t>
+          <t>half</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>おかあさん</t>
+          <t>はん</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>father</t>
+          <t>number</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>おとうさん</t>
+          <t>ばんごう</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>older sister</t>
+          <t>international student</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>おねえさん</t>
+          <t>りゅうがくせい</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>older brother</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>おにいさん</t>
+          <t>わたし</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>younger sister</t>
+          <t>U.S.A.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>いもうと</t>
+          <t>アメリカ</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>younger brother</t>
+          <t>Britain</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>おとうと</t>
+          <t>イギリス</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>um...</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>あの</t>
+          <t>オーストラリア</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>Korea</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>いま</t>
+          <t>かんこく</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>English (language)</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>えいご</t>
+          <t>スウェーデン</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ええ</t>
+          <t>ちゅうごく</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>science</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>がくせい</t>
+          <t>かがく</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>...language</t>
+          <t>Asian studies</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>～ご</t>
+          <t>アジアけんきゅう</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>high school</t>
+          <t>economics</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>こうこう</t>
+          <t>けいざい</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>P.M.</t>
+          <t>international relations</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ごご</t>
+          <t>こくさいかんけい</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A.M.</t>
+          <t>computer</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ごぜん</t>
+          <t>コンピューター</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>...years old</t>
+          <t>anthropology</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>～さい</t>
+          <t>じんるいがく</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Mr./Ms....</t>
+          <t>politics</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>～さん</t>
+          <t>せいじ</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>o'clock</t>
+          <t>business</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>～じ</t>
+          <t>ビジネス</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>...people</t>
+          <t>literature</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>～じん</t>
+          <t>ぶんがく</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>major</t>
+          <t>history</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>せんこう</t>
+          <t>れきし</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>U.S.A.</t>
+          <t>job; work; occupation</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>アメリカ</t>
+          <t>しごと</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Britain</t>
+          <t>doctor</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>イギリス</t>
+          <t>いしゃ</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>office worker</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>オーストラリア</t>
+          <t>かいしゃいん</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>high school student</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>かんこく</t>
+          <t>こうこうせい</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>housewife</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>スウェーデン</t>
+          <t>しゅふ</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>graduate student</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ちゅうごく</t>
+          <t>だいがくいんせい</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>greeting; greetings</t>
+          <t>college student</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>あいさつ</t>
+          <t>だいがくせい</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Expression Notes</t>
+          <t>lawyer</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ひょうげんノート</t>
+          <t>べんごし</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>practice; practising</t>
+          <t>mother</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>れんしゅう</t>
+          <t>おかあさん</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>bow; bowing</t>
+          <t>father</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>おじぎ</t>
+          <t>おとうさん</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>lesson...</t>
+          <t>older sister</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>だい～か</t>
+          <t>おねえさん</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>conversation; dialogue</t>
+          <t>older brother</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>かいわ</t>
+          <t>おにいさん</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>word; vocabulary</t>
+          <t>younger sister</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>たんご</t>
+          <t>いもうと</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>grammar</t>
+          <t>younger brother</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ぶんぽう</t>
+          <t>おとうと</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>numbers</t>
+          <t>greeting; greetings</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>すうじ</t>
+          <t>あいさつ</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>Expression Notes</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>じかん</t>
+          <t>ひょうげんノート</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>summary; review</t>
+          <t>practice; practising</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>まとめ</t>
+          <t>れんしゅう</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>age; years</t>
+          <t>bow; bowing</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>とし</t>
+          <t>おじぎ</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>hiragana</t>
+          <t>lesson...</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ひらがな</t>
+          <t>だい～か</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>katakana</t>
+          <t>conversation; dialogue</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>カタカナ</t>
+          <t>かいわ</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>kanji</t>
+          <t>word; vocabulary</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>漢字|かんじ</t>
+          <t>たんご</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>job; work; occupation</t>
+          <t>grammar</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>しごと</t>
+          <t>ぶんぽう</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>doctor</t>
+          <t>numbers</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>いしゃ</t>
+          <t>すうじ</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>office worker</t>
+          <t>time</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>かいしゃいん</t>
+          <t>じかん</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>high school student</t>
+          <t>summary; review</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>こうこうせい</t>
+          <t>まとめ</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>housewife</t>
+          <t>age; years</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>しゅふ</t>
+          <t>とし</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>graduate student</t>
+          <t>hiragana</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>だいがくいんせい</t>
+          <t>ひらがな</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>college student</t>
+          <t>katakana</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>だいがくせい</t>
+          <t>カタカナ</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>lawyer</t>
+          <t>kanji</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>べんごし</t>
+          <t>漢字|かんじ</t>
         </is>
       </c>
     </row>
@@ -1374,6 +1442,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons/lesson-1.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-1.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1442,6 +1442,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>